--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="npc" sheetId="1" r:id="rId1"/>
+    <sheet name="monster" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"icon":"portraits/35"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"sprite":"rip","scale":0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +75,6 @@
   </si>
   <si>
     <t>smith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"icon":"portraits/4"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,6 +119,38 @@
     {"type":"enter",  "range":["17:10","17:20"],    "from":"門",          "to":"point-1"},
     {"type":"stay",   "range":["17:20","24:00"],    "pos":"point-1"}
 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"monsters/0",
+"faceR":false,
+"anchor":{"x":32,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"life": {"cur":10,"max":10},
+"hunger": {"cur":0,"max":100},
+"thirst": {"cur":0,"max":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"icon":"portraits/4","gold":200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"icon":"portraits/35","gold":100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"icon":"portraits/35"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,9 +215,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -496,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -516,18 +536,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -535,10 +555,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="109.2">
@@ -549,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="140.4">
@@ -557,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="31.2">
@@ -584,16 +604,16 @@
     </row>
     <row r="8" spans="1:3" ht="171.6">
       <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -605,37 +625,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3"/>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="109.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="31.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="46.8">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>"icon":"portraits/35"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"capacity":20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -576,6 +580,9 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
@@ -627,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
     <sheet name="monster" sheetId="2" r:id="rId2"/>
+    <sheet name="brooklyn" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,16 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"rogues/10",
-"faceR":false,
-"anchor":{"x":32,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"attack": 5,
 "defense": 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +62,6 @@
   </si>
   <si>
     <t>others</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smith</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -108,20 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"village_01":
-[   {"type":"enter",  "range":["6:00","6:10"],      "from":"門-1",    "to":"point-1"}, 
-    {"type":"stay",   "range":["6:10","17:00"],     "pos":"point-1"},
-    {"type":"exit",   "range":["17:00","17:10"],    "from":"point-1", "to":"門-1"}
-],
-"house_01":
-[   {"type":"stay",   "range":["0:00","5:50"],      "pos":"point-1"},
-    {"type":"exit",   "range":["5:50","6:00"],      "from":"point-1",     "to":"門"},
-    {"type":"enter",  "range":["17:10","17:20"],    "from":"門",          "to":"point-1"},
-    {"type":"stay",   "range":["17:20","24:00"],    "pos":"point-1"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"sprite":"monsters/0",
 "faceR":false,
 "anchor":{"x":32,"y":16}, 
@@ -142,19 +115,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"icon":"portraits/4","gold":200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"icon":"portraits/35","gold":100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"icon":"portraits/35"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"capacity":20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraits/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/7",
+"faceR":false,
+"anchor":{"x":32,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraits/35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"gold":200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corpse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rip","scale":0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/34",
+"faceR":false,
+"anchor":{"x":32,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/3",
+"faceR":false,
+"anchor":{"x":32,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"capacity":-1,
+"items":["sword_01",
+{"id":"helmet_01","count":1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"attack": 5,
+"defense": 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>states</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"life": {"cur":100,"max":100},
+"hunger": {"cur":0,"max":100},
+"thirst": {"cur":0,"max":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[
+{"type":"enter",  "t":"6:00-6:10",      
+"from":"門-1", "to":"point-1"}, 
+{"type":"stay",   "t":"6:10-17:00",     "pos":"point-1"},
+{"type":"exit",   "t":"17:00-17:10",    "from":"point-1", "to":"門-1"}
+],
+"house_01":[   
+{"type":"stay", "t":"0:00-5:50",      "pos":"point-1"},
+{"type":"exit",   "t":"5:50-6:00",      "from":"point-1", "to":"門"},
+{"type":"enter",  "t":"17:10-17:20",    
+"from":"門", "to":"point-1"},
+{"type":"stay",   "t":"17:20-24:00",    "pos":"point-1"}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[   
+{"type":"enter", "t":"6:00-6:10",      
+"from":"smith-p0", "to":"smith-p1"}, 
+{"type":"stay", "t":"6:10-17:00",     
+"pos":"smith-p1"},
+{"type":"exit", "t":"17:00-17:10",   
+"from":"smith-p1", "to":"smith-p0"}
+],
+"house_01":[   
+{"type":"stay", "t":"0:00-5:50",      
+"pos":"point-1"},
+{"type":"exit", "t":"5:50-6:00",      
+"from":"point-1","to":"門"},
+{"type":"enter", "t":"17:10-17:20",    
+"from":"門", "to":"point-1"},
+{"type":"stay", "t":"17:20-24:00",    
+"pos":"point-1"}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smith_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gilly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/37",
+"faceR":false,
+"anchor":{"x":32,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"trader"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"butcher"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"merchant"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"innkeeper","gold":200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"smith","gold":200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eldon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hobart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gorham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mordo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraits/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraits/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraits/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraits/21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/40",
+"faceR":false,
+"anchor":{"x":32,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraits/45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraits/38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"ranger","gold":100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,17 +711,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -540,15 +733,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -559,68 +752,79 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="109.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="109.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="140.4">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="31.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="140.4">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="46.8">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="46.8">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="171.6">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3" ht="280.8">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -632,10 +836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -649,12 +853,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -665,47 +869,213 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="109.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" ht="109.2">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="31.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" ht="31.2">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="46.8">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="46.8">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="109.2">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.8">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.2">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="46.8">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="280.8">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
-    <sheet name="monster" sheetId="2" r:id="rId2"/>
-    <sheet name="brooklyn" sheetId="4" r:id="rId3"/>
+    <sheet name="brooklyn" sheetId="4" r:id="rId2"/>
+    <sheet name="monster" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,22 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"capacity":-1,
-"items":["sword_01",
-{"id":"helmet_01","count":1},
-"chest_01","gloves_01",                                           
-"boots_01","neck_01","ring_01",
-"torch","iron","iron",                                            
-{"id":"salt","count":10},"bag",
-"bag","raw_meat",
-"raw_fish","bottle"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"sprite":"monsters/0",
 "faceR":false,
 "anchor":{"x":32,"y":16}, 
@@ -127,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portraits/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"sprite":"rogues/7",
 "faceR":false,
 "anchor":{"x":32,"y":16}, 
@@ -145,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"gold":200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,7 +155,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"rogues/3",
+    <t>bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"capacity":-1,
+"items":["sword_01",
+{"id":"helmet_01","count":1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"attack": 5,
+"defense": 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>states</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"life": {"cur":100,"max":100},
+"hunger": {"cur":0,"max":100},
+"thirst": {"cur":0,"max":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gilly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/37",
 "faceR":false,
 "anchor":{"x":32,"y":16}, 
 "w":64, "h":64,
@@ -189,64 +202,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"capacity":-1,
-"items":["sword_01",
-{"id":"helmet_01","count":1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"attack": 5,
-"defense": 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>states</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"life": {"cur":100,"max":100},
-"hunger": {"cur":0,"max":100},
-"thirst": {"cur":0,"max":100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[
-{"type":"enter",  "t":"6:00-6:10",      
-"from":"門-1", "to":"point-1"}, 
-{"type":"stay",   "t":"6:10-17:00",     "pos":"point-1"},
-{"type":"exit",   "t":"17:00-17:10",    "from":"point-1", "to":"門-1"}
-],
-"house_01":[   
-{"type":"stay", "t":"0:00-5:50",      "pos":"point-1"},
-{"type":"exit",   "t":"5:50-6:00",      "from":"point-1", "to":"門"},
-{"type":"enter",  "t":"17:10-17:20",    
-"from":"門", "to":"point-1"},
-{"type":"stay",   "t":"17:20-24:00",    "pos":"point-1"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[   
-{"type":"enter", "t":"6:00-6:10",      
-"from":"smith-p0", "to":"smith-p1"}, 
-{"type":"stay", "t":"6:10-17:00",     
-"pos":"smith-p1"},
-{"type":"exit", "t":"17:00-17:10",   
-"from":"smith-p1", "to":"smith-p0"}
-],
-"house_01":[   
+    <t>"job":"innkeeper","gold":200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"smith","gold":200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraits/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/40",
+"faceR":false,
+"anchor":{"x":32,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraits/38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"ranger","gold":100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_musk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_trump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_macron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"house_01":[   
 {"type":"stay", "t":"0:00-5:50",      
 "pos":"point-1"},
 {"type":"exit", "t":"5:50-6:00",      
@@ -259,15 +277,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>smith_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gilly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"rogues/37",
+    <t>"village_01":[   
+{"type":"enter", "t":"6:00-6:10",      
+"from":"musk-p0", "to":"musk-p1"}, 
+{"type":"stay", "t":"6:10-17:00",     
+"pos":"musk-p1"},
+{"type":"exit", "t":"17:00-17:10",   
+"from":"musk-p1", "to":"musk-p0"}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[   
+{"type":"enter", "t":"6:00-6:10",      
+"from":"xi-p0", "to":"xi-p1"}, 
+{"type":"stay", "t":"6:10-17:00",     
+"pos":"xi-p1"},
+{"type":"exit", "t":"17:00-17:10",   
+"from":"xi-p1", "to":"xi-p0"}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[   
+{"type":"enter", "t":"6:00-6:10",      
+"from":"macron-p0", "to":"macron-p1"}, 
+{"type":"stay", "t":"6:10-17:00",     
+"pos":"macron-p1"},
+{"type":"exit", "t":"17:00-17:10",   
+"from":"macron-p1", "to":"macron-p0"}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/36",
 "faceR":false,
 "anchor":{"x":32,"y":16}, 
 "w":64, "h":64,
@@ -277,77 +320,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"job":"trader"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"job":"butcher"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"job":"merchant"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"job":"innkeeper","gold":200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"job":"smith","gold":200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eldon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hobart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gorham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mordo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portraits/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portraits/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portraits/18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portraits/21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"rogues/40",
-"faceR":false,
-"anchor":{"x":32,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portraits/45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portraits/38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"job":"ranger","gold":100</t>
+    <t>"job":"trader","gold":200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"butcher","gold":200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"merchant","gold":200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"trump_inn_f1":[   
+{"type":"stay", "t":"0:00-24:00",     
+"pos":"trump-p0"}
+]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,121 +699,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="109.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="109.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="140.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="46.8">
+    </row>
+    <row r="8" spans="1:2" ht="46.8">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="280.8">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -835,6 +790,217 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="109.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="46.8">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="31.2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="62.4">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="124.8">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="156">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -853,15 +1019,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -882,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -903,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -917,165 +1083,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="109.2">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="46.8">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.2">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="46.8">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="280.8">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
@@ -111,16 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"rogues/7",
-"faceR":false,
-"anchor":{"x":32,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>portraits/35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +326,16 @@
 {"type":"stay", "t":"0:00-24:00",     
 "pos":"trump-p0"}
 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"trump",
+"faceR":false,
+"anchor":{"x":32,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -741,7 +741,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="109.2">
@@ -749,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -793,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -816,181 +816,181 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="109.2">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.8">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="62.4">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="124.8">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="156">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gilly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"sprite":"rogues/37",
 "faceR":false,
 "anchor":{"x":32,"y":16}, 
@@ -197,10 +193,6 @@
   </si>
   <si>
     <t>"job":"smith","gold":200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portraits/1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,6 +328,25 @@
 "b":{"l":16,"r":16,"t":32,"b":0},                    
 "g":{"l":16,"r":16,"t":32,"b":0},
 "z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>karen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_karen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[   
+{"type":"enter", "t":"6:00-6:10",      
+"from":"karen-p0", "to":"karen-p1"}, 
+{"type":"stay", "t":"6:10-17:00",     
+"pos":"karen-p1"},
+{"type":"exit", "t":"17:00-17:10",   
+"from":"karen-p1", "to":"karen-p0"}
+]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -725,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -741,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="109.2">
@@ -749,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -793,11 +804,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -805,7 +816,7 @@
     <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="46.77734375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
@@ -816,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -836,19 +847,19 @@
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -876,19 +887,19 @@
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="109.2">
@@ -902,13 +913,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.8">
@@ -973,16 +984,19 @@
         <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="156">
@@ -990,7 +1004,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
@@ -65,27 +65,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"rogues/38",
-"faceR":false,
-"anchor":{"x":32,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"monsters/0",
-"faceR":false,
-"anchor":{"x":32,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,16 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"rogues/34",
-"faceR":false,
-"anchor":{"x":32,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,31 +148,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"rogues/37",
-"faceR":false,
-"anchor":{"x":32,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"job":"innkeeper","gold":200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"job":"smith","gold":200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"rogues/40",
-"faceR":false,
-"anchor":{"x":32,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -292,16 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"rogues/36",
-"faceR":false,
-"anchor":{"x":32,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"job":"trader","gold":200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,16 +258,6 @@
 {"type":"stay", "t":"0:00-24:00",     
 "pos":"trump-p0"}
 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"trump",
-"faceR":false,
-"anchor":{"x":32,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -347,6 +277,76 @@
 {"type":"exit", "t":"17:00-17:10",   
 "from":"karen-p1", "to":"karen-p0"}
 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"trump",
+"faceR":false,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/34",
+"faceR":false,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/38",
+"faceR":false,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/37",
+"faceR":false,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/40",
+"faceR":false,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rogues/36",
+"faceR":false,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"monsters/0",
+"faceR":false,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -733,10 +733,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="109.2">
@@ -760,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -768,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.2">
@@ -789,7 +789,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3"/>
     </row>
@@ -804,11 +804,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -827,184 +827,184 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="109.2">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.8">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="46.8">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="62.4">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="124.8">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="156">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1033,15 +1033,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1083,12 +1083,12 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3"/>
     </row>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,13 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"trump_inn_f1":[   
-{"type":"stay", "t":"0:00-24:00",     
-"pos":"trump-p0"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>karen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,6 +340,22 @@
 "b":{"l":16,"r":16,"t":32,"b":0},                    
 "g":{"l":16,"r":16,"t":32,"b":0},
 "z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"trump_inn_f1":[   
+{"type":"stay", "t":"0:00-24:00",     
+"pos":"trump-p0"}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"trump_inn_f2":[
+{"type":"stay", "t":"0:00-7:00",     
+"pos":"trump-p0"},   
+{"type":"enter", "t":"7:00-7:10",     
+"from":"trump-p0","to":"bed"}
+]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -760,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -804,11 +813,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -833,7 +842,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -853,7 +862,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>40</v>
@@ -907,19 +916,19 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.8">
@@ -987,10 +996,10 @@
         <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>44</v>
@@ -1005,6 +1014,9 @@
       </c>
       <c r="B10" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -353,8 +353,12 @@
     <t>"trump_inn_f2":[
 {"type":"stay", "t":"0:00-7:00",     
 "pos":"trump-p0"},   
-{"type":"enter", "t":"7:00-7:10",     
-"from":"trump-p0","to":"bed"}
+{"type":"action", "t":"7:00-7:10",     
+"from":"trump-p0","to":"bed"},
+{"type":"action", "t":"7:15-7:25",     
+"from":"bed","to":"door"},
+{"type":"exit", "t":"7:25-7:30",     
+"from":"door","to":"stair_dn"}
 ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,7 +821,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,11 +129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"attack": 5,
-"defense": 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>states</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,52 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"house_01":[   
-{"type":"stay", "t":"0:00-5:50",      
-"pos":"point-1"},
-{"type":"exit", "t":"5:50-6:00",      
-"from":"point-1","to":"門"},
-{"type":"enter", "t":"17:10-17:20",    
-"from":"門", "to":"point-1"},
-{"type":"stay", "t":"17:20-24:00",    
-"pos":"point-1"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[   
-{"type":"enter", "t":"6:00-6:10",      
-"from":"musk-p0", "to":"musk-p1"}, 
-{"type":"stay", "t":"6:10-17:00",     
-"pos":"musk-p1"},
-{"type":"exit", "t":"17:00-17:10",   
-"from":"musk-p1", "to":"musk-p0"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[   
-{"type":"enter", "t":"6:00-6:10",      
-"from":"xi-p0", "to":"xi-p1"}, 
-{"type":"stay", "t":"6:10-17:00",     
-"pos":"xi-p1"},
-{"type":"exit", "t":"17:00-17:10",   
-"from":"xi-p1", "to":"xi-p0"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[   
-{"type":"enter", "t":"6:00-6:10",      
-"from":"macron-p0", "to":"macron-p1"}, 
-{"type":"stay", "t":"6:10-17:00",     
-"pos":"macron-p1"},
-{"type":"exit", "t":"17:00-17:10",   
-"from":"macron-p1", "to":"macron-p0"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"job":"trader","gold":200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,17 +208,6 @@
   </si>
   <si>
     <t>icon_karen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[   
-{"type":"enter", "t":"6:00-6:10",      
-"from":"karen-p0", "to":"karen-p1"}, 
-{"type":"stay", "t":"6:10-17:00",     
-"pos":"karen-p1"},
-{"type":"exit", "t":"17:00-17:10",   
-"from":"karen-p1", "to":"karen-p0"}
-]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -343,23 +281,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"village_01":[   
+{"t":"0:0~24:0","p":"macron-p0"} 
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[   
+{"t":"0:0~24:0","p":"xi-p0"} 
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[   
+{"t":"0:0~24:0","p":"karen-p0"} 
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[   
+{"t":"0:0~24:0","p":"musk-p0"} 
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"trump_inn_f1":[   
-{"type":"stay", "t":"0:00-24:00",     
-"pos":"trump-p0"}
+{"t":"7:20~7:30","p":"stair_up~trump-p0"},
+{"t":"7:30~21:00","p":"trump-p0"},
+{"t":"21:00~21:10","p":"trump-p0~stair_up"}
 ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"trump_inn_f2":[
-{"type":"stay", "t":"0:00-7:00",     
-"pos":"trump-p0"},   
-{"type":"action", "t":"7:00-7:10",     
-"from":"trump-p0","to":"bed"},
-{"type":"action", "t":"7:15-7:25",     
-"from":"bed","to":"door"},
-{"type":"exit", "t":"7:25-7:30",     
-"from":"door","to":"stair_dn"}
+{"t":"7:00~7:25","p":"bed~stair_dn"},
+{"t":"8:10~8:25","p":"stair_dn~bed"},
+{"t":"8:25~8:35","p":"bed"},
+{"t":"8:35~9:30","p":"bed~stair_dn"}
 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"attack":5,
+"defense":0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +713,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -765,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="109.2">
@@ -773,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -818,17 +782,17 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="46.77734375" style="1" customWidth="1"/>
@@ -840,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -860,19 +824,19 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -900,19 +864,19 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="109.2">
@@ -920,19 +884,19 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.8">
@@ -957,70 +921,68 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="46.8">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="78">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="93.6">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="124.8">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="156">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1040,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -313,17 +313,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"attack":5,
+"defense":0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"trump_inn_f2":[
 {"t":"7:00~7:25","p":"bed~stair_dn"},
 {"t":"8:10~8:25","p":"stair_dn~bed"},
-{"t":"8:25~8:35","p":"bed"},
-{"t":"8:35~9:30","p":"bed~stair_dn"}
+{"t":"8:25~9:00","p":"bed"},
+{"t":"9:00~9:10","p":"bed~stair_dn"}
 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"attack":5,
-"defense":0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +782,10 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -921,19 +921,19 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="46.8">
@@ -982,7 +982,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,48 +281,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"village_01":[   
-{"t":"0:0~24:0","p":"macron-p0"} 
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[   
-{"t":"0:0~24:0","p":"xi-p0"} 
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[   
-{"t":"0:0~24:0","p":"karen-p0"} 
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[   
-{"t":"0:0~24:0","p":"musk-p0"} 
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"trump_inn_f1":[   
-{"t":"7:20~7:30","p":"stair_up~trump-p0"},
-{"t":"7:30~21:00","p":"trump-p0"},
-{"t":"21:00~21:10","p":"trump-p0~stair_up"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"attack":5,
 "defense":0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"village_01":[   
+{"t":"0:0~24:0","p":"karen-p1"} 
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[   
+{"t":"0:0~24:0","p":"xi-p1"} 
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[   
+{"t":"0:0~24:0","p":"macron-p1"} 
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[   
+{"t":"7:50~8:0","p":"musk-p0~musk-p1"},
+{"t":"8:0~11:50","p":"musk-p1"},
+{"t":"11:50~12:0","p":"musk-p1~trump-inn-p0"}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"trump_inn_f1":[   
+{"t":"7:20~7:30","p":"stair-up~trump-p0"},
+{"t":"7:30~21:00","p":"trump-p0"},
+{"t":"21:00~21:10","p":"trump-p0~stair-up"}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"trump_inn_f2":[
-{"t":"7:00~7:25","p":"bed~stair_dn"},
-{"t":"8:10~8:25","p":"stair_dn~bed"},
+{"t":"7:00~7:25","p":"bed~stair-dn"},
+{"t":"8:10~8:25","p":"stair-dn~bed"},
 {"t":"8:25~9:00","p":"bed"},
-{"t":"9:00~9:10","p":"bed~stair_dn"}
+{"t":"9:00~9:10","p":"bed~stair-dn"}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"trump_inn_f1":[
+{"t":"12:0~12:10","p":"door~sit-1"},
+{"t":"12:0~13:0","p":"sit-1"},
+{"t":"13:0~13:10","p":"sit-1~door"}
 ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -785,13 +795,13 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.109375" style="1" customWidth="1"/>
@@ -921,19 +931,19 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="46.8">
@@ -961,26 +971,28 @@
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="93.6">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>59</v>
       </c>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -304,14 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"village_01":[   
-{"t":"7:50~8:0","p":"musk-p0~musk-p1"},
-{"t":"8:0~11:50","p":"musk-p1"},
-{"t":"11:50~12:0","p":"musk-p1~trump-inn-p0"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"trump_inn_f1":[   
 {"t":"7:20~7:30","p":"stair-up~trump-p0"},
 {"t":"7:30~21:00","p":"trump-p0"},
@@ -333,6 +325,16 @@
 {"t":"12:0~12:10","p":"door~sit-1"},
 {"t":"12:0~13:0","p":"sit-1"},
 {"t":"13:0~13:10","p":"sit-1~door"}
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"village_01":[   
+{"t":"7:50~8:0","p":"musk-p0~musk-p1"},
+{"t":"8:0~11:50","p":"musk-p1"},
+{"t":"11:50~12:0","p":"musk-p1~trump-inn-p0"},
+{"t":"13:10~13:20","p":"trump-inn-p0~musk-p1"},
+{"t":"13:20~17:00","p":"musk-p1"}
 ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,7 +797,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -966,15 +968,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="78">
+    <row r="9" spans="1:6" ht="109.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>54</v>
@@ -991,10 +993,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,10 +136,6 @@
     <t>"life": {"cur":100,"max":100},
 "hunger": {"cur":0,"max":100},
 "thirst": {"cur":0,"max":100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schedule</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,56 +282,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"village_01":[   
-{"t":"0:0~24:0","p":"karen-p1"} 
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[   
-{"t":"0:0~24:0","p":"xi-p1"} 
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[   
-{"t":"0:0~24:0","p":"macron-p1"} 
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"trump_inn_f1":[   
-{"t":"7:20~7:30","p":"stair-up~trump-p0"},
-{"t":"7:30~21:00","p":"trump-p0"},
-{"t":"21:00~21:10","p":"trump-p0~stair-up"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"trump_inn_f2":[
-{"t":"7:00~7:25","p":"bed~stair-dn"},
-{"t":"8:10~8:25","p":"stair-dn~bed"},
-{"t":"8:25~9:00","p":"bed"},
-{"t":"9:00~9:10","p":"bed~stair-dn"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"trump_inn_f1":[
-{"t":"12:0~12:10","p":"door~sit-1"},
-{"t":"12:0~13:0","p":"sit-1"},
-{"t":"13:0~13:10","p":"sit-1~door"}
-]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"village_01":[   
-{"t":"7:50~8:0","p":"musk-p0~musk-p1"},
-{"t":"8:0~11:50","p":"musk-p1"},
-{"t":"11:50~12:0","p":"musk-p1~trump-inn-p0"},
-{"t":"13:10~13:20","p":"trump-inn-p0~musk-p1"},
-{"t":"13:20~17:00","p":"musk-p1"}
-]</t>
+    <t>schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"11:50~12:00", "p":"musk-p1~trump-inn", "map":"village_01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"12:00~12:10", "p":"door~sit-1", "map":"trump_inn_f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"12:10~13:00", "p":"sit-1", "map":"trump_inn_f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:00~13:10", "p":"sit-1~door", "map":"trump_inn_f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:10~13:20", "p":"trump-inn~musk-p1", "map":"village_01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:20~17:00", "p":"musk-p1", "map":"village_01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"08:00~11:50", "p":"musk-p1", "map":"village_01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"07:50~08:00", "p":"musk-home~musk-p1", "map":"village_01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:00~17:10", "p":"musk-p1~trump-inn", "map":"village_01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:10~17:20", "p":"door~sit-1", "map":"trump_inn_f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:20~20:00", "p":"sit-1", "map":"trump_inn_f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:00~20:10", "p":"sit-1~door", "map":"trump_inn_f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:10~20:20", "p":"trump-inn~musk-home", "map":"village_01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:20~20:30", "p":"door~bed", "map":"musk_home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:30~07:40", "p":"bed", "map":"musk_home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"07:40~07:50", "p":"bed~door", "map":"musk_home"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +713,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -725,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -741,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="109.2">
@@ -749,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -791,19 +802,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.109375" style="1" customWidth="1"/>
@@ -816,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -836,19 +847,19 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -876,19 +887,19 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="109.2">
@@ -896,19 +907,19 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.8">
@@ -933,19 +944,19 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="46.8">
@@ -968,35 +979,132 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="109.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="3" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="93.6">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>58</v>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,67 +286,259 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"t":"11:50~12:00", "p":"musk-p1~trump-inn", "map":"village_01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"12:00~12:10", "p":"door~sit-1", "map":"trump_inn_f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"12:10~13:00", "p":"sit-1", "map":"trump_inn_f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"13:00~13:10", "p":"sit-1~door", "map":"trump_inn_f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"13:10~13:20", "p":"trump-inn~musk-p1", "map":"village_01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"13:20~17:00", "p":"musk-p1", "map":"village_01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"08:00~11:50", "p":"musk-p1", "map":"village_01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"07:50~08:00", "p":"musk-home~musk-p1", "map":"village_01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"17:00~17:10", "p":"musk-p1~trump-inn", "map":"village_01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"17:10~17:20", "p":"door~sit-1", "map":"trump_inn_f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"17:20~20:00", "p":"sit-1", "map":"trump_inn_f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"20:00~20:10", "p":"sit-1~door", "map":"trump_inn_f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"20:10~20:20", "p":"trump-inn~musk-home", "map":"village_01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"20:20~20:30", "p":"door~bed", "map":"musk_home"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"20:30~07:40", "p":"bed", "map":"musk_home"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"07:40~07:50", "p":"bed~door", "map":"musk_home"</t>
+    <t>"t":"07:40~07:50", "p":"bed~door", "map":"musk-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"07:50~08:00", "p":"musk-home~musk-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"08:00~11:50", "p":"musk-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"11:50~12:00", "p":"musk-p1~trump-inn", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"12:00~12:10", "p":"door~sit-1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"12:10~13:00", "p":"sit-1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:00~13:10", "p":"sit-1~door", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:10~13:20", "p":"trump-inn~musk-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:20~17:00", "p":"musk-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:00~17:10", "p":"musk-p1~trump-inn", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:10~17:20", "p":"door~sit-1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:00~20:10", "p":"sit-1~door", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:10~20:20", "p":"trump-inn~musk-home", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:20~20:30", "p":"door~bed", "map":"musk-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:30~07:40", "p":"bed", "map":"musk-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:20~20:00", "p":"sit-1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"12:00~12:10", "p":"door~sit-3", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"12:10~13:00", "p":"sit-3", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:00~13:10", "p":"sit-3~door", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:10~17:20", "p":"door~sit-3", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:20~20:00", "p":"sit-3", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:00~20:10", "p":"sit-3~door", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"08:00~11:50", "p":"karen-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"07:50~08:00", "p":"karen-home~karen-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"11:50~12:00", "p":"karen-p1~trump-inn", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:20~17:00", "p":"karen-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:00~17:10", "p":"karen-p1~trump-inn", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:10~20:20", "p":"trump-inn~karen-home", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:20~20:30", "p":"door~bed", "map":"karen-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:30~07:40", "p":"bed", "map":"karen-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:10~13:20", "p":"trump-inn~karen-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"07:40~07:50", "p":"bed~door", "map":"karen-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"07:40~07:50", "p":"bed~door", "map":"xi-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"07:50~08:00", "p":"xi-home~xi-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"08:00~11:50", "p":"xi-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"11:50~12:00", "p":"xi-p1~trump-inn", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"12:00~12:10", "p":"door~sit-5", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"12:10~13:00", "p":"sit-5", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:00~13:10", "p":"sit-5~door", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:10~13:20", "p":"trump-inn~xi-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:20~17:00", "p":"xi-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:00~17:10", "p":"xi-p1~trump-inn", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:10~17:20", "p":"door~sit-5", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:20~20:00", "p":"sit-5", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:00~20:10", "p":"sit-5~door", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:10~20:20", "p":"trump-inn~xi-home", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:20~20:30", "p":"door~bed", "map":"xi-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:30~07:40", "p":"bed", "map":"xi-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"07:40~07:50", "p":"bed~door", "map":"macron-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"07:50~08:00", "p":"macron-home~macron-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"08:00~11:50", "p":"macron-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"11:50~12:00", "p":"macron-p1~trump-inn", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:20~17:00", "p":"macron-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:00~17:10", "p":"macron-p1~trump-inn", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:10~20:20", "p":"trump-inn~macron-home", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:20~20:30", "p":"door~bed", "map":"macron-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:30~07:40", "p":"bed", "map":"macron-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"12:00~12:10", "p":"door~sit-7", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"12:10~13:00", "p":"sit-7", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:00~13:10", "p":"sit-7~door", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"13:10~13:20", "p":"trump-inn~macron-p1", "map":"village-01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:10~17:20", "p":"door~sit-7", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"17:20~20:00", "p":"sit-7", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"20:00~20:10", "p":"sit-7~door", "map":"trump-inn-f1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +997,10 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -816,9 +1008,9 @@
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="67.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="70.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -984,7 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -992,7 +1193,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1000,7 +1210,16 @@
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1008,7 +1227,16 @@
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1016,7 +1244,16 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1024,7 +1261,16 @@
         <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1032,7 +1278,16 @@
         <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1040,71 +1295,152 @@
         <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="D23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,30 @@
   </si>
   <si>
     <t>"t":"20:00~20:10", "p":"sit-7~door", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"06:10~06:20", "p":"stair-up-trump-p1", "map":"trumo-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"06:20~22:30", "p":"trump-p1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"22:30~22:40", "p":"trump-p1~stair-up", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"22:40~22:50", "p":"stair-dn~bed", "map":"trump-inn-f2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"22:50~06:00", "p":"bed", "map":"trump-inn-f2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"06:00~06:10", "p":"bed~stair-dn", "map":"trump-inn-f2"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,17 +1021,17 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="67.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66" style="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="70.6640625" style="1" customWidth="1"/>
@@ -1178,6 +1202,9 @@
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>85</v>
       </c>
@@ -1195,6 +1222,9 @@
       <c r="B10" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>77</v>
       </c>
@@ -1212,6 +1242,9 @@
       <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>76</v>
       </c>
@@ -1229,6 +1262,9 @@
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>78</v>
       </c>
@@ -1246,6 +1282,9 @@
       <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>70</v>
       </c>
@@ -1262,6 +1301,9 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>71</v>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,16 +204,6 @@
   </si>
   <si>
     <t>icon_karen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"trump",
-"faceR":false,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -563,6 +553,25 @@
   </si>
   <si>
     <t>"t":"06:00~06:10", "p":"bed~stair-dn", "map":"trump-inn-f2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"body","scale":0.25},
+"head":{"sprite":"trump_head","scale":0.3,"y":-35},
+"armor":{"sprite":"armor-1","scale":0.25,"y":-10},
+"boot":{"sprite":"boot-1","scale":0.25,"x":1},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":32, "h":64,
+"b":{"l":0,"r":0,"t":32,"b":0},                    
+"g":{"l":0,"r":0,"t":32,"b":0},
+"z":{"l":0,"r":0,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"capacity":-1,
+"items":["sword_01","chest_01",
+{"id":"helmet_01","count":1}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,13 +938,13 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -971,12 +980,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="109.2">
+    <row r="5" spans="1:2" ht="156">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1021,10 +1030,10 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1123,19 +1132,19 @@
         <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.8">
@@ -1143,7 +1152,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
@@ -1160,19 +1169,19 @@
         <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="46.8">
@@ -1200,170 +1209,170 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1371,16 +1380,16 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1388,16 +1397,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1405,16 +1414,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1422,16 +1431,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1439,16 +1448,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1456,16 +1465,16 @@
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1473,16 +1482,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -22,10 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scott</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>corpse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portraits/38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"job":"ranger","gold":100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,10 +164,6 @@
   </si>
   <si>
     <t>icon_musk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_trump</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,16 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"rogues/38",
-"faceR":false,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"sprite":"rogues/37",
 "faceR":false,
 "anchor":{"x":0,"y":16}, 
@@ -556,10 +534,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"body":{"sprite":"body","scale":0.25},
-"head":{"sprite":"trump_head","scale":0.3,"y":-35},
-"armor":{"sprite":"armor-1","scale":0.25,"y":-10},
-"boot":{"sprite":"boot-1","scale":0.25,"x":1},
+    <t>"capacity":-1,
+"items":["sword_01","chest_01","gloves_01",
+{"id":"helmet_01","count":1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"body-man","scale":0.25},
+"head":{"sprite":"head-wick","scale":0.25,"y":-28.5},
 "faceR":true,
 "anchor":{"x":0,"y":16}, 
 "w":32, "h":64,
@@ -569,9 +551,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"capacity":-1,
-"items":["sword_01","chest_01",
-{"id":"helmet_01","count":1}]</t>
+    <t>wick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-wick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-trump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"trump","scale":0.25},
+"faceR":false,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,7 +936,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -953,68 +951,68 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="156">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="124.8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="46.8">
       <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3"/>
     </row>
@@ -1030,10 +1028,10 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1052,446 +1050,446 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="109.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="46.8">
       <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="31.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="46.8">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1520,62 +1518,62 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="109.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.2">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="46.8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3"/>
     </row>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,18 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon_musk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_xi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_macron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"job":"trader","gold":200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,50 +176,6 @@
   </si>
   <si>
     <t>karen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_karen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"rogues/34",
-"faceR":false,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"rogues/37",
-"faceR":false,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"rogues/40",
-"faceR":false,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"rogues/36",
-"faceR":false,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,10 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"t":"06:10~06:20", "p":"stair-up-trump-p1", "map":"trumo-inn-f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"t":"06:20~22:30", "p":"trump-p1", "map":"trump-inn-f1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,12 +471,6 @@
   </si>
   <si>
     <t>"t":"06:00~06:10", "p":"bed~stair-dn", "map":"trump-inn-f2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"capacity":-1,
-"items":["sword_01","chest_01","gloves_01",
-{"id":"helmet_01","count":1}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -563,13 +497,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"body":{"sprite":"trump","scale":0.25},
-"faceR":false,
+    <t>head-musk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-macron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-melanie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"musk","scale":0.25},
+"faceR":true,
 "anchor":{"x":0,"y":16}, 
 "w":64, "h":64,
 "b":{"l":16,"r":16,"t":32,"b":0},                    
 "g":{"l":16,"r":16,"t":32,"b":0},
 "z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"trump","scale":0.25},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"melanie","scale":0.25},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"xi","scale":0.25},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"macron","scale":0.25},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melanie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"06:10~06:20", "p":"stair-up~trump-p1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"06:10~06:20", "p":"trump-p1~stair-up", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"06:20~06:30", "p":"stair-dn~bed", "map":"trump-inn-f2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"06:30~14:30", "p":"bed", "map":"trump-inn-f2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"14:30~14:40", "p":"bed~stair-dn", "map":"trump-inn-f2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"14:40~14:50", "p":"stair-up~melanie-p1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"22:30~06:10", "p":"trump-p1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"14:50~22:30", "p":"melanie-p1~trump-p1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"capacity":-1,
+"items":["sword_01",
+{"id":"helmet_01","count":1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"capacity":-1,
+"items":["sword_01","chest_01","gloves_01","chest_02",
+{"id":"helmet_01","count":1}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -959,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -983,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1025,78 +1063,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="70.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="66" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69" style="1" customWidth="1"/>
+    <col min="4" max="4" width="67.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="69" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>115</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -1104,85 +1149,100 @@
       <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="109.2">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="109.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="46.8">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="46.8">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>132</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="31.2">
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="46.8">
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="46.8">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1190,7 +1250,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -1201,295 +1261,319 @@
       <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>83</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1631,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="135">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,7 +474,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-wick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-trump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-musk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-xi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-macron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head-melanie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"musk","scale":0.25},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"trump","scale":0.25},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"melanie","scale":0.25},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"xi","scale":0.25},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"macron","scale":0.25},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melanie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"06:10~06:20", "p":"stair-up~trump-p1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"06:10~06:20", "p":"trump-p1~stair-up", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"06:20~06:30", "p":"stair-dn~bed", "map":"trump-inn-f2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"06:30~14:30", "p":"bed", "map":"trump-inn-f2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"14:30~14:40", "p":"bed~stair-dn", "map":"trump-inn-f2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"14:40~14:50", "p":"stair-up~melanie-p1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"capacity":-1,
+"items":["sword_01",
+{"id":"helmet_01","count":1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"capacity":-1,
+"items":["sword_01","chest_01","gloves_01","chest_02",
+{"id":"helmet_01","count":1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"14:50~22:30", "p":"melanie-p1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"22:30~22:40", "p":"melanie-p1~trump-p1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t":"22:40~06:10", "p":"trump-p1", "map":"trump-inn-f1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"body":{"sprite":"body-man","scale":0.25},
+"hand":{"sprite":"hand-man","scale":0.25},
 "head":{"sprite":"head-wick","scale":0.25,"y":-28.5},
 "faceR":true,
 "anchor":{"x":0,"y":16}, 
@@ -482,132 +613,6 @@
 "b":{"l":0,"r":0,"t":32,"b":0},                    
 "g":{"l":0,"r":0,"t":32,"b":0},
 "z":{"l":0,"r":0,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head-wick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head-trump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head-musk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head-xi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head-macron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head-melanie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"body":{"sprite":"musk","scale":0.25},
-"faceR":true,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"body":{"sprite":"trump","scale":0.25},
-"faceR":true,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"body":{"sprite":"melanie","scale":0.25},
-"faceR":true,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"body":{"sprite":"xi","scale":0.25},
-"faceR":true,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"body":{"sprite":"macron","scale":0.25},
-"faceR":true,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melanie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"06:10~06:20", "p":"stair-up~trump-p1", "map":"trump-inn-f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"06:10~06:20", "p":"trump-p1~stair-up", "map":"trump-inn-f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"06:20~06:30", "p":"stair-dn~bed", "map":"trump-inn-f2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"06:30~14:30", "p":"bed", "map":"trump-inn-f2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"14:30~14:40", "p":"bed~stair-dn", "map":"trump-inn-f2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"14:40~14:50", "p":"stair-up~melanie-p1", "map":"trump-inn-f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"22:30~06:10", "p":"trump-p1", "map":"trump-inn-f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"t":"14:50~22:30", "p":"melanie-p1~trump-p1", "map":"trump-inn-f1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"capacity":-1,
-"items":["sword_01",
-{"id":"helmet_01","count":1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"capacity":-1,
-"items":["sword_01","chest_01","gloves_01","chest_02",
-{"id":"helmet_01","count":1}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -989,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -997,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1016,12 +1021,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="124.8">
+    <row r="5" spans="1:2" ht="140.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1065,11 +1070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1092,7 +1097,7 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -1112,22 +1117,22 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1181,22 +1186,22 @@
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.8">
@@ -1207,10 +1212,10 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>23</v>
@@ -1273,7 +1278,7 @@
         <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>41</v>
@@ -1293,10 +1298,10 @@
         <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>42</v>
@@ -1319,7 +1324,7 @@
         <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>43</v>
@@ -1342,7 +1347,7 @@
         <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>44</v>
@@ -1365,7 +1370,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
@@ -1408,7 +1413,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>47</v>
@@ -1426,6 +1431,9 @@
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -979,7 +979,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1070,11 +1070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,16 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>orc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"life": {"cur":10,"max":10},
-"hunger": {"cur":0,"max":100},
-"thirst": {"cur":0,"max":100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"capacity":20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +74,6 @@
   </si>
   <si>
     <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>portraits/35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -176,16 +162,6 @@
   </si>
   <si>
     <t>karen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"monsters/0",
-"faceR":false,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -613,6 +589,39 @@
 "b":{"l":0,"r":0,"t":32,"b":0},                    
 "g":{"l":0,"r":0,"t":32,"b":0},
 "z":{"l":0,"r":0,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"rogue","gold":200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"life": {"cur":50,"max":50},
+"hunger": {"cur":0,"max":100},
+"thirst": {"cur":0,"max":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"rogue","scale":0.25},
+"hand":{"sprite":"hand-man","scale":0.25},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":32, "h":64,
+"b":{"l":0,"r":0,"t":32,"b":0},                    
+"g":{"l":0,"r":0,"t":32,"b":0},
+"z":{"l":0,"r":0,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["sword_01"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,7 +988,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -994,15 +1003,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1018,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="140.4">
@@ -1026,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1034,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.2">
@@ -1070,11 +1079,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1094,53 +1103,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1149,125 +1158,125 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="109.2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.8">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="46.8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1275,194 +1284,194 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1470,16 +1479,16 @@
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1487,16 +1496,16 @@
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1504,16 +1513,16 @@
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1521,16 +1530,16 @@
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1538,16 +1547,16 @@
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1555,16 +1564,16 @@
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1572,16 +1581,16 @@
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1593,16 +1602,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1610,15 +1619,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1633,13 +1642,16 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="109.2">
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="124.8">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1647,27 +1659,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="31.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.2">
+      <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="46.8">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" ht="46.8">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -1605,7 +1605,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"job":"smith","gold":200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"job":"ranger","gold":100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,16 +471,6 @@
   </si>
   <si>
     <t>head-melanie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"body":{"sprite":"musk","scale":0.25},
-"faceR":true,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,6 +608,21 @@
   </si>
   <si>
     <t>["sword_01"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"smith","gold":200,"weapon":"sword_01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"musk","scale":0.25},
+"hand":{"sprite":"hand-man","scale":0.25},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,7 +989,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1003,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1011,7 +1012,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1027,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="140.4">
@@ -1035,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1079,11 +1080,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1103,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1126,22 +1127,22 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1178,39 +1179,39 @@
         <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="109.2">
+    </row>
+    <row r="5" spans="1:7" ht="124.8">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.8">
@@ -1221,10 +1222,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>20</v>
@@ -1238,22 +1239,22 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="46.8">
@@ -1284,194 +1285,194 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1479,16 +1480,16 @@
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1496,16 +1497,16 @@
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1513,16 +1514,16 @@
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1530,16 +1531,16 @@
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1547,16 +1548,16 @@
         <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1564,16 +1565,16 @@
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1581,16 +1582,16 @@
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1604,14 +1605,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1619,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1627,7 +1628,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1643,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="124.8">
@@ -1651,7 +1652,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1661,10 +1662,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2">
@@ -1680,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="136">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>states</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"life": {"cur":100,"max":100},
-"hunger": {"cur":0,"max":100},
-"thirst": {"cur":0,"max":100}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,12 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"life": {"cur":100,"max":100},
-"hunger": {"cur":0,"max":100},
-"thirst": {"cur":0,"max":100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"job":"innkeeper","gold":200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,11 +146,6 @@
   </si>
   <si>
     <t>karen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"attack":5,
-"defense":0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,6 +606,18 @@
 "b":{"l":16,"r":16,"t":32,"b":0},                    
 "g":{"l":16,"r":16,"t":32,"b":0},
 "z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"attack": 5,
+"defense": 0,
+"lifeMax": 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"life": 100,
+"hunger": 0,
+"thirst": 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1004,15 +999,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1020,23 +1015,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="140.4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1044,15 +1039,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="46.8">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="46.8">
@@ -1060,12 +1055,12 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3"/>
     </row>
@@ -1081,10 +1076,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1104,494 +1099,494 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="124.8">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.8">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="46.8">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.2">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="46.8">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1620,15 +1615,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1636,23 +1631,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="124.8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1662,10 +1657,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2">
@@ -1673,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="46.8">
@@ -1681,12 +1676,12 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3"/>
     </row>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,14 +98,6 @@
     <t>"capacity":-1,
 "items":["sword_01",
 {"id":"helmet_01","count":1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attrs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>states</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -609,15 +601,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"attack": 5,
-"defense": 0,
-"lifeMax": 100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"life": 100,
-"hunger": 0,
-"thirst": 0</t>
+    <t>"str":10, "dex":10, "con":10, "int":10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,16 +969,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -999,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1007,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1023,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="140.4">
@@ -1031,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1042,27 +1030,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="46.8">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="46.8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1073,13 +1053,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1099,22 +1079,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1122,22 +1102,22 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1168,22 +1148,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="124.8">
@@ -1191,22 +1171,22 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.8">
@@ -1217,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -1229,245 +1209,239 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="46.8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="46.8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1475,16 +1449,16 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1492,16 +1466,16 @@
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1509,16 +1483,16 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1526,16 +1500,16 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1543,16 +1517,16 @@
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1560,33 +1534,16 @@
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1623,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1639,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="124.8">
@@ -1647,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1657,10 +1614,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2">
@@ -1676,7 +1633,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="npc" sheetId="1" r:id="rId1"/>
@@ -557,10 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"job":"rogue","gold":200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"life": {"cur":50,"max":50},
 "hunger": {"cur":0,"max":100},
 "thirst": {"cur":0,"max":100}</t>
@@ -606,6 +602,10 @@
   </si>
   <si>
     <t>stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"rogue","gold":200,"type":"enemy"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1055,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
@@ -1154,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
@@ -1177,7 +1177,7 @@
         <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>108</v>
@@ -1211,25 +1211,25 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1557,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1596,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="124.8">
@@ -1604,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1614,10 +1614,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2">
@@ -1633,7 +1633,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -541,9 +541,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"body":{"sprite":"body-man","scale":0.25},
-"hand":{"sprite":"hand-man","scale":0.25},
-"head":{"sprite":"head-wick","scale":0.25,"y":-28.5},
+    <t>rogue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"life": {"cur":50,"max":50},
+"hunger": {"cur":0,"max":100},
+"thirst": {"cur":0,"max":100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["sword_01"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"smith","gold":200,"weapon":"sword_01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"str":10, "dex":10, "con":10, "int":10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"job":"rogue","gold":200,"type":"enemy"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"body-man","scale":0.25,"y":32},
+"hand":{"sprite":"hand-man","scale":0.25,"y":32},
+"head":{"sprite":"head-wick","scale":0.25,"y":3.5},
 "faceR":true,
 "anchor":{"x":0,"y":16}, 
 "w":32, "h":64,
@@ -553,18 +587,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rogue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"life": {"cur":50,"max":50},
-"hunger": {"cur":0,"max":100},
-"thirst": {"cur":0,"max":100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"body":{"sprite":"rogue","scale":0.25},
-"hand":{"sprite":"hand-man","scale":0.25},
+    <t>"body":{"sprite":"rogue","scale":0.25,"y":32},
+"hand":{"sprite":"hand-man","scale":0.25,"y":32},
 "faceR":true,
 "anchor":{"x":0,"y":16}, 
 "w":32, "h":64,
@@ -574,38 +598,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>equips</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["sword_01"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"job":"smith","gold":200,"weapon":"sword_01"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"body":{"sprite":"musk","scale":0.25},
-"hand":{"sprite":"hand-man","scale":0.25},
+    <t>"body":{"sprite":"musk","scale":0.25,"y":32},
+"hand":{"sprite":"hand-man","scale":0.25,"y":32},
 "faceR":true,
 "anchor":{"x":0,"y":16}, 
 "w":64, "h":64,
 "b":{"l":16,"r":16,"t":32,"b":0},                    
 "g":{"l":16,"r":16,"t":32,"b":0},
 "z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"str":10, "dex":10, "con":10, "int":10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"job":"rogue","gold":200,"type":"enemy"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +972,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1019,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1032,10 +1032,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1056,10 +1056,10 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1154,7 +1154,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
@@ -1177,7 +1177,7 @@
         <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>108</v>
@@ -1211,25 +1211,25 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1558,13 +1558,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1596,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="124.8">
@@ -1604,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1614,10 +1614,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2">
@@ -1633,7 +1633,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="135">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,6 +606,10 @@
 "b":{"l":16,"r":16,"t":32,"b":0},                    
 "g":{"l":16,"r":16,"t":32,"b":0},
 "z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sprite":"rip","scale":0.5,"y":32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1558,7 +1562,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1588,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
   </bookViews>
   <sheets>
-    <sheet name="npc" sheetId="1" r:id="rId1"/>
+    <sheet name="player" sheetId="1" r:id="rId1"/>
     <sheet name="brooklyn" sheetId="4" r:id="rId2"/>
     <sheet name="monster" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1561,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -449,46 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"body":{"sprite":"trump","scale":0.25},
-"faceR":true,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"body":{"sprite":"melanie","scale":0.25},
-"faceR":true,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"body":{"sprite":"xi","scale":0.25},
-"faceR":true,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"body":{"sprite":"macron","scale":0.25},
-"faceR":true,
-"anchor":{"x":0,"y":16}, 
-"w":64, "h":64,
-"b":{"l":16,"r":16,"t":32,"b":0},                    
-"g":{"l":16,"r":16,"t":32,"b":0},
-"z":{"l":16,"r":16,"t":32,"b":0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>melanie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,6 +570,46 @@
   </si>
   <si>
     <t>"sprite":"rip","scale":0.5,"y":32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"melanie","scale":0.25,"y":32},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"xi","scale":0.25,"y":32},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"macron","scale":0.25,"y":32},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"body":{"sprite":"trump","scale":0.25,"y":32},
+"faceR":true,
+"anchor":{"x":0,"y":16}, 
+"w":64, "h":64,
+"b":{"l":16,"r":16,"t":32,"b":0},                    
+"g":{"l":16,"r":16,"t":32,"b":0},
+"z":{"l":16,"r":16,"t":32,"b":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1036,10 +1036,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1059,11 +1059,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1086,7 +1086,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1158,7 +1158,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>26</v>
@@ -1175,22 +1175,22 @@
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.8">
@@ -1201,10 +1201,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>19</v>
@@ -1215,25 +1215,25 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1244,7 +1244,7 @@
         <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -1264,10 +1264,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
@@ -1290,7 +1290,7 @@
         <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>33</v>
@@ -1313,7 +1313,7 @@
         <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
@@ -1336,7 +1336,7 @@
         <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
@@ -1359,7 +1359,7 @@
         <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>36</v>
@@ -1379,7 +1379,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>37</v>
@@ -1399,7 +1399,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="124.8">
@@ -1608,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1618,10 +1618,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2">
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1561,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="133">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"sprite":"rip","scale":0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>others</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,10 +72,6 @@
   </si>
   <si>
     <t>corpse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sprite":"rip","scale":0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -991,15 +983,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1007,15 +999,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="140.4">
@@ -1023,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1031,20 +1023,20 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3"/>
     </row>
@@ -1059,11 +1051,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1083,471 +1075,471 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="124.8">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="46.8">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1576,15 +1568,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1592,15 +1584,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="124.8">
@@ -1608,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1618,10 +1610,10 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2">
@@ -1637,12 +1629,12 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3"/>
     </row>

--- a/xls/role.xlsx
+++ b/xls/role.xlsx
@@ -1055,7 +1055,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
